--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,6 +466,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uac|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -631,7 +634,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -749,7 +752,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -777,7 +780,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -948,7 +951,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1075,7 +1078,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1637,7 +1640,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1652,7 +1655,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.9296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2860,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -2928,10 +2931,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2954,16 +2957,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2989,13 +2992,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3013,7 +3016,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3068,16 +3071,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3103,13 +3106,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3127,7 +3130,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3156,10 +3159,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3185,13 +3188,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3241,7 +3244,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3270,10 +3273,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3296,16 +3299,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3331,13 +3334,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3355,7 +3358,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3384,14 +3387,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3410,16 +3413,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3469,7 +3472,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3487,7 +3490,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3498,14 +3501,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3524,16 +3527,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3583,7 +3586,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3601,7 +3604,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3612,10 +3615,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3641,10 +3644,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3693,7 +3696,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3722,13 +3725,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3750,13 +3753,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3807,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3816,7 +3819,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -3836,13 +3839,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3864,13 +3867,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3921,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3930,7 +3933,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -3950,13 +3953,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -3978,13 +3981,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4035,7 +4038,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4064,10 +4067,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4093,16 +4096,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4151,7 +4154,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4169,7 +4172,7 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4180,10 +4183,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4206,17 +4209,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4265,7 +4268,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4274,30 +4277,30 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4406,10 +4409,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4520,10 +4523,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4546,19 +4549,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4583,11 +4586,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4605,7 +4608,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4620,10 +4623,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4634,10 +4637,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4660,19 +4663,19 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4697,11 +4700,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4719,7 +4722,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4734,10 +4737,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4748,10 +4751,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4777,16 +4780,16 @@
         <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4799,7 +4802,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -4835,7 +4838,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4850,13 +4853,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4864,10 +4867,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4893,13 +4896,13 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4913,7 +4916,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -4949,7 +4952,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4964,13 +4967,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4978,10 +4981,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5004,13 +5007,13 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5061,7 +5064,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5076,13 +5079,13 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5090,10 +5093,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5116,16 +5119,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5175,7 +5178,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5190,13 +5193,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5204,10 +5207,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5230,70 +5233,70 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5308,24 +5311,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5348,19 +5351,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5385,11 +5388,11 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5407,7 +5410,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5422,24 +5425,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5465,16 +5468,16 @@
         <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5523,7 +5526,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5532,19 +5535,19 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5581,16 +5584,16 @@
         <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5639,7 +5642,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5657,7 +5660,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5668,10 +5671,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5694,19 +5697,19 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5755,7 +5758,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5764,19 +5767,19 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -5784,10 +5787,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5810,19 +5813,19 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5871,7 +5874,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5880,19 +5883,19 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5900,10 +5903,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5926,17 +5929,17 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5985,7 +5988,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6000,10 +6003,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>106</v>
@@ -6014,10 +6017,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6126,10 +6129,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6240,10 +6243,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6269,13 +6272,13 @@
         <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6325,7 +6328,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6334,7 +6337,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6343,7 +6346,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6354,10 +6357,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6383,13 +6386,13 @@
         <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6415,11 +6418,11 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6437,7 +6440,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6455,7 +6458,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6466,10 +6469,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6492,16 +6495,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6551,7 +6554,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6569,7 +6572,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6580,10 +6583,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6609,13 +6612,13 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6665,7 +6668,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6683,7 +6686,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6694,10 +6697,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6720,19 +6723,19 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6781,7 +6784,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6799,7 +6802,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6810,10 +6813,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6922,10 +6925,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7036,14 +7039,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7065,16 +7068,16 @@
         <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7123,7 +7126,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7141,7 +7144,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7152,10 +7155,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7178,17 +7181,17 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7213,13 +7216,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7237,7 +7240,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7266,10 +7269,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7292,17 +7295,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7351,7 +7354,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7366,10 +7369,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7380,10 +7383,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7406,17 +7409,17 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7465,7 +7468,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7480,10 +7483,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7494,10 +7497,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7520,17 +7523,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7579,7 +7582,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7594,10 +7597,10 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7608,10 +7611,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7634,17 +7637,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7693,7 +7696,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
